--- a/11-CollaborationList/ZZ2-RetainForMailingList.xlsx
+++ b/11-CollaborationList/ZZ2-RetainForMailingList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050110968525/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB3A3ACD-D5FF-4148-A2A1-2D89775C99F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA85A1B-8653-A24B-8A61-1689837CF401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
   <si>
     <t>Title</t>
   </si>
@@ -269,6 +269,30 @@
   </si>
   <si>
     <t>U.Amaldi</t>
+  </si>
+  <si>
+    <t>angus.kirkland@rfi.ac.uk</t>
+  </si>
+  <si>
+    <t>laura.holland@rfi.ac.uk</t>
+  </si>
+  <si>
+    <t>Angus</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>Kirkland</t>
+  </si>
+  <si>
+    <t>A.</t>
+  </si>
+  <si>
+    <t>KL.</t>
   </si>
 </sst>
 </file>
@@ -827,8 +851,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{441F41B1-3955-7345-81ED-136E8F9AE8DF}" name="Table1" displayName="Table1" ref="A1:Q17" totalsRowShown="0">
-  <autoFilter ref="A1:Q17" xr:uid="{441F41B1-3955-7345-81ED-136E8F9AE8DF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{441F41B1-3955-7345-81ED-136E8F9AE8DF}" name="Table1" displayName="Table1" ref="A1:Q19" totalsRowShown="0">
+  <autoFilter ref="A1:Q19" xr:uid="{441F41B1-3955-7345-81ED-136E8F9AE8DF}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{76074AB2-37DE-6846-A45C-0535DE01BA25}" name="Title"/>
     <tableColumn id="2" xr3:uid="{B67FEE32-D589-444B-BA62-7224D1002356}" name="Name"/>
@@ -1169,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A38D86E-A0CA-AC4E-9E28-0478CB9EC53A}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F17" sqref="F17:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1710,6 +1734,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3546A31E-41FF-974D-A2D7-E04F3ECB43DD}"/>
